--- a/output/Security_document_results.xlsx
+++ b/output/Security_document_results.xlsx
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9951627</v>
+        <v>0.9951628</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7572422599999999</v>
+        <v>0.7572423</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.711538</v>
+        <v>0.7115381</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6784509</v>
+        <v>0.678451</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.66642344</v>
+        <v>0.66642314</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.63898635</v>
+        <v>0.63898623</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.59461886</v>
+        <v>0.59461874</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.54083735</v>
+        <v>0.5408373</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.42529368</v>
+        <v>0.42529386</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.41434026</v>
+        <v>0.4143403</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.401318</v>
+        <v>0.40131795</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
